--- a/test/unit/resources/test2007.xlsx
+++ b/test/unit/resources/test2007.xlsx
@@ -585,9 +585,7 @@
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11">
-        <v>39260</v>
-      </c>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
